--- a/学生信息(1).xlsx
+++ b/学生信息(1).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\我的文档\Tencent Files\389185223\FileRecv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\java\exam\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28785" windowHeight="13140" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28785" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="学生信息" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5638" uniqueCount="2550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5632" uniqueCount="2544">
   <si>
     <t>陈坤阳</t>
   </si>
@@ -7644,30 +7644,6 @@
   </si>
   <si>
     <t>制造系统工程及网络制造</t>
-  </si>
-  <si>
-    <t>major</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>nu</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>xi</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>大一：制造系统工程及网络制造(6月7日 8：30-11：00)、产品数字化设计与制造（6月7日 2：00-4：30） 大二：先进制造基础研究技术（6月8日8：30-11：00）、制造系统质量管理和控制（6月8日 2：00-4：30）  大三：机械设计自动化网络化(6月9日 8：30-11：00)、绿色设计与制造（6月9日 2：00-4：30） 大四：制造业信息化技术与应用（6月10日 2：00-4：30）</t>
@@ -8079,8 +8055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2476"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8163,25 +8139,12 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:14" ht="14.25">
-      <c r="A9" t="s">
-        <v>2541</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>2542</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2543</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>2544</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>2545</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="4" t="s">
-        <v>2540</v>
-      </c>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:14" ht="28.5">
       <c r="A10" s="2">
@@ -8264,7 +8227,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>2546</v>
+        <v>2540</v>
       </c>
       <c r="N12" t="s">
         <v>7</v>
@@ -8296,7 +8259,7 @@
         <v>9</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>2548</v>
+        <v>2542</v>
       </c>
       <c r="N13" t="s">
         <v>7</v>
@@ -65192,8 +65155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -65229,7 +65192,7 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>2547</v>
+        <v>2541</v>
       </c>
       <c r="D3" s="9">
         <v>43990.333333333336</v>
@@ -65246,7 +65209,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>2549</v>
+        <v>2543</v>
       </c>
       <c r="D4" s="9">
         <v>43991.333333333336</v>
